--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_con1_216.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_con1_216.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N449"/>
+  <dimension ref="A1:N450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4338879585266113</v>
+        <v>0.3984060287475586</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001209020614624023</v>
+        <v>0.001714944839477539</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04237222671508789</v>
+        <v>0.0583488941192627</v>
       </c>
     </row>
     <row r="8">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.123744781498298</v>
+        <v>0.1237222125085071</v>
       </c>
     </row>
     <row r="444">
@@ -3567,116 +3567,126 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>13993.78704352387</v>
+        <v>14267.38704352387</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>17</v>
+        <v>0.9989928492176218</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>3</v>
+        <v>415</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.4959890842437744</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.4844942092895508</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr">
+      <c r="D450" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E449" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F449" t="inlineStr">
+      <c r="F450" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
+      <c r="G450" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
+      <c r="H450" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I449" t="inlineStr">
+      <c r="I450" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J449" t="inlineStr">
+      <c r="J450" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K449" t="inlineStr">
+      <c r="K450" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L449" t="inlineStr">
+      <c r="L450" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M449" t="inlineStr">
+      <c r="M450" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N449" t="inlineStr">
+      <c r="N450" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_con1_216.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_con1_216.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3984060287475586</v>
+        <v>0.001338005065917969</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001714944839477539</v>
+        <v>0.0006968975067138672</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0583488941192627</v>
+        <v>0.07151985168457031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (0, 0), (0, 1), (2, 1), (0, 2), (1, 0), (1, 1), (2, 2)]</t>
+          <t>[[2, 0], [1, 2], [0, 0], [0, 1], [2, 1], [0, 2], [1, 0], [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>[(2, 2), (0, 2), (2, 1), (1, 2), (0, 1), (0, 0), (1, 1), (1, 0), (2, 0)]</t>
+          <t>[[2, 2], [0, 2], [2, 1], [1, 2], [0, 1], [0, 0], [1, 1], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (2, 2), (0, 1), (1, 1), (1, 2), (1, 0), (0, 2), (0, 0)]</t>
+          <t>[[2, 0], [2, 1], [2, 2], [0, 1], [1, 1], [1, 2], [1, 0], [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.4844942092895508</v>
+        <v>0.09925580024719238</v>
       </c>
     </row>
     <row r="450">
